--- a/02 Fastlane_HI-GMP/HI-GMP.xlsx
+++ b/02 Fastlane_HI-GMP/HI-GMP.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\종훈\7 Fastlane\HI-GMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\종훈\03 코딩\02 Fastlane_HI-GMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C285B7-FD58-4AE3-9203-DA7A0042D08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A729EE35-2EE1-4FFF-8685-C47F2B70ACF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9156" yWindow="1056" windowWidth="3696" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1356" yWindow="2952" windowWidth="3696" windowHeight="7812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. 기반" sheetId="5" r:id="rId1"/>
     <sheet name="2. 가이드라인" sheetId="1" r:id="rId2"/>
     <sheet name="3. 약전" sheetId="4" r:id="rId3"/>
-    <sheet name="10. 참고문헌" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="114">
   <si>
     <t>가이드라인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,34 +218,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.gmp-compliance.org/guidelines/gmp-guidelines-download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ECA Academy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your GMP/GDP Information Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EudraLex - Volume 4 - Good Manufacturing Practice (GMP) guidelines</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,87 +322,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>제약회사에 대한 모든 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버 카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 관련 약전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 관련 조직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMP 참조 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트 목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HI-GMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.qualifyze.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국제약바이오협회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYTIVA 교육프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.cytivalifesciences.co.kr/education/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한국보건복지인력개발원   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kohi.or.kr/index.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오의약품협회  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kobia.kr/bbs/board.php?tbl=edu_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 통계교육원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://sti.kostat.go.kr/coresti/site/main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오스펙테이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qualifyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신일서적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디티지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔코팜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육, 영문화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>한국 GMP 아카데미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제약회사에 대한 모든 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버 카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 관련 약전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NMPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 관련 조직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육기관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GMP 참조 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹사이트 목적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HI-GMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>팜리크루트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>써모피셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/kr/ko/home/technical-resources/learning-centers.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,15 +518,6 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -481,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,13 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -787,16 +842,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A14AEE4-1C9A-4EFB-910E-0441EC47762C}">
-  <dimension ref="C3:H64"/>
+  <dimension ref="C3:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.69921875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="11.3984375" customWidth="1"/>
@@ -804,58 +859,58 @@
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.4">
       <c r="F16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.4">
@@ -863,7 +918,7 @@
         <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.4">
@@ -871,58 +926,58 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.4">
       <c r="E27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.4">
@@ -930,7 +985,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.4">
@@ -938,143 +993,253 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.4">
       <c r="F30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.4">
       <c r="F31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.4">
       <c r="F32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F33" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F63" t="s">
         <v>93</v>
       </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="F51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="F52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="E64" t="s">
-        <v>64</v>
+      <c r="G63" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.4">
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E77" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1141,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>37</v>
@@ -1160,7 +1325,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1376,7 +1541,7 @@
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="2"/>
@@ -1404,7 +1569,7 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2"/>
@@ -1489,60 +1654,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BECB72D-7033-43B0-9070-BC922C892EF2}">
-  <dimension ref="B4:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="8.796875" style="6"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{05EBDEE9-99B8-47A6-B22A-E06A923FC8DE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>